--- a/excel/input.xlsx
+++ b/excel/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm Projects\sewing-tracker\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\PycharmProjects\sewing-tracker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667CF6DE-EC4D-4D4E-9087-E89200CF3546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72812D12-5D72-4CD7-9E7E-6A7CEDFEBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -1752,157 +1752,157 @@
       <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" customWidth="1"/>
-    <col min="9" max="9" width="2.8984375" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.09765625" customWidth="1"/>
-    <col min="12" max="12" width="3.3984375" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" customWidth="1"/>
-    <col min="14" max="14" width="11.19921875" customWidth="1"/>
-    <col min="15" max="15" width="45.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="3.375" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="45.625" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="19.69921875" customWidth="1"/>
-    <col min="18" max="18" width="20.3984375" customWidth="1"/>
-    <col min="19" max="19" width="15.59765625" customWidth="1"/>
-    <col min="20" max="20" width="36.69921875" customWidth="1"/>
-    <col min="21" max="21" width="8.8984375" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="36.75" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
     <col min="22" max="22" width="23" customWidth="1"/>
-    <col min="23" max="23" width="23.59765625" customWidth="1"/>
-    <col min="24" max="25" width="10.19921875" customWidth="1"/>
-    <col min="26" max="26" width="8.8984375" customWidth="1"/>
-    <col min="27" max="27" width="21.09765625" customWidth="1"/>
+    <col min="23" max="23" width="23.625" customWidth="1"/>
+    <col min="24" max="25" width="10.25" customWidth="1"/>
+    <col min="26" max="26" width="8.875" customWidth="1"/>
+    <col min="27" max="27" width="21.125" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="29" width="8.8984375" customWidth="1"/>
-    <col min="30" max="30" width="13.19921875" customWidth="1"/>
+    <col min="29" max="29" width="8.875" customWidth="1"/>
+    <col min="30" max="30" width="13.25" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="11.8984375" customWidth="1"/>
-    <col min="33" max="33" width="21.8984375" customWidth="1"/>
-    <col min="34" max="34" width="17.69921875" customWidth="1"/>
-    <col min="35" max="35" width="8.8984375" customWidth="1"/>
-    <col min="36" max="36" width="10.59765625" customWidth="1"/>
-    <col min="37" max="37" width="8.8984375" customWidth="1"/>
-    <col min="38" max="38" width="10.59765625" customWidth="1"/>
-    <col min="39" max="39" width="16.59765625" customWidth="1"/>
-    <col min="40" max="40" width="20.8984375" customWidth="1"/>
-    <col min="41" max="41" width="24.19921875" customWidth="1"/>
-    <col min="42" max="42" width="22.8984375" customWidth="1"/>
-    <col min="43" max="43" width="17.69921875" customWidth="1"/>
-    <col min="44" max="44" width="15.69921875" customWidth="1"/>
-    <col min="45" max="45" width="28.59765625" customWidth="1"/>
-    <col min="46" max="46" width="41.3984375" customWidth="1"/>
-    <col min="47" max="47" width="29.19921875" customWidth="1"/>
-    <col min="48" max="48" width="13.8984375" customWidth="1"/>
-    <col min="49" max="49" width="18.59765625" customWidth="1"/>
+    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="33" max="33" width="21.875" customWidth="1"/>
+    <col min="34" max="34" width="17.75" customWidth="1"/>
+    <col min="35" max="35" width="8.875" customWidth="1"/>
+    <col min="36" max="36" width="10.625" customWidth="1"/>
+    <col min="37" max="37" width="8.875" customWidth="1"/>
+    <col min="38" max="38" width="10.625" customWidth="1"/>
+    <col min="39" max="39" width="16.625" customWidth="1"/>
+    <col min="40" max="40" width="20.875" customWidth="1"/>
+    <col min="41" max="41" width="24.25" customWidth="1"/>
+    <col min="42" max="42" width="22.875" customWidth="1"/>
+    <col min="43" max="43" width="17.75" customWidth="1"/>
+    <col min="44" max="44" width="15.75" customWidth="1"/>
+    <col min="45" max="45" width="28.625" customWidth="1"/>
+    <col min="46" max="46" width="41.375" customWidth="1"/>
+    <col min="47" max="47" width="29.25" customWidth="1"/>
+    <col min="48" max="48" width="13.875" customWidth="1"/>
+    <col min="49" max="49" width="18.625" customWidth="1"/>
     <col min="50" max="50" width="14" customWidth="1"/>
-    <col min="51" max="51" width="18.09765625" customWidth="1"/>
-    <col min="52" max="52" width="24.09765625" customWidth="1"/>
-    <col min="53" max="53" width="11.09765625" customWidth="1"/>
-    <col min="54" max="54" width="16.09765625" customWidth="1"/>
-    <col min="55" max="55" width="13.09765625" customWidth="1"/>
-    <col min="56" max="56" width="18.09765625" customWidth="1"/>
-    <col min="57" max="57" width="18.69921875" customWidth="1"/>
-    <col min="58" max="58" width="9.19921875" customWidth="1"/>
-    <col min="59" max="59" width="27.69921875" customWidth="1"/>
-    <col min="60" max="60" width="11.19921875" customWidth="1"/>
-    <col min="61" max="61" width="16.3984375" customWidth="1"/>
-    <col min="62" max="62" width="5.19921875" customWidth="1"/>
-    <col min="63" max="63" width="21.69921875" customWidth="1"/>
-    <col min="64" max="64" width="14.3984375" customWidth="1"/>
-    <col min="65" max="65" width="20.69921875" customWidth="1"/>
-    <col min="66" max="66" width="7.59765625" customWidth="1"/>
-    <col min="67" max="67" width="19.3984375" customWidth="1"/>
-    <col min="68" max="68" width="12.69921875" customWidth="1"/>
-    <col min="69" max="69" width="8.19921875" customWidth="1"/>
-    <col min="70" max="70" width="7.8984375" customWidth="1"/>
-    <col min="71" max="71" width="22.19921875" customWidth="1"/>
-    <col min="72" max="72" width="9.09765625" customWidth="1"/>
-    <col min="73" max="73" width="20.8984375" customWidth="1"/>
-    <col min="74" max="74" width="8.8984375" customWidth="1"/>
-    <col min="75" max="75" width="14.19921875" customWidth="1"/>
-    <col min="76" max="76" width="27.09765625" customWidth="1"/>
-    <col min="77" max="77" width="8.69921875" customWidth="1"/>
+    <col min="51" max="51" width="18.125" customWidth="1"/>
+    <col min="52" max="52" width="24.125" customWidth="1"/>
+    <col min="53" max="53" width="11.125" customWidth="1"/>
+    <col min="54" max="54" width="16.125" customWidth="1"/>
+    <col min="55" max="55" width="13.125" customWidth="1"/>
+    <col min="56" max="56" width="18.125" customWidth="1"/>
+    <col min="57" max="57" width="18.75" customWidth="1"/>
+    <col min="58" max="58" width="9.25" customWidth="1"/>
+    <col min="59" max="59" width="27.75" customWidth="1"/>
+    <col min="60" max="60" width="11.25" customWidth="1"/>
+    <col min="61" max="61" width="16.375" customWidth="1"/>
+    <col min="62" max="62" width="5.25" customWidth="1"/>
+    <col min="63" max="63" width="21.75" customWidth="1"/>
+    <col min="64" max="64" width="14.375" customWidth="1"/>
+    <col min="65" max="65" width="20.75" customWidth="1"/>
+    <col min="66" max="66" width="7.625" customWidth="1"/>
+    <col min="67" max="67" width="19.375" customWidth="1"/>
+    <col min="68" max="68" width="12.75" customWidth="1"/>
+    <col min="69" max="69" width="8.25" customWidth="1"/>
+    <col min="70" max="70" width="7.875" customWidth="1"/>
+    <col min="71" max="71" width="22.25" customWidth="1"/>
+    <col min="72" max="72" width="9.125" customWidth="1"/>
+    <col min="73" max="73" width="20.875" customWidth="1"/>
+    <col min="74" max="74" width="8.875" customWidth="1"/>
+    <col min="75" max="75" width="14.25" customWidth="1"/>
+    <col min="76" max="76" width="27.125" customWidth="1"/>
+    <col min="77" max="77" width="8.75" customWidth="1"/>
     <col min="78" max="78" width="19" customWidth="1"/>
-    <col min="79" max="79" width="13.69921875" customWidth="1"/>
+    <col min="79" max="79" width="13.75" customWidth="1"/>
     <col min="80" max="80" width="9" customWidth="1"/>
     <col min="81" max="81" width="12" customWidth="1"/>
-    <col min="82" max="82" width="65.59765625" customWidth="1"/>
-    <col min="83" max="83" width="15.09765625" customWidth="1"/>
-    <col min="84" max="84" width="22.8984375" customWidth="1"/>
-    <col min="85" max="85" width="13.8984375" customWidth="1"/>
-    <col min="86" max="86" width="20.59765625" customWidth="1"/>
-    <col min="87" max="87" width="16.19921875" customWidth="1"/>
+    <col min="82" max="82" width="65.625" customWidth="1"/>
+    <col min="83" max="83" width="15.125" customWidth="1"/>
+    <col min="84" max="84" width="22.875" customWidth="1"/>
+    <col min="85" max="85" width="13.875" customWidth="1"/>
+    <col min="86" max="86" width="20.625" customWidth="1"/>
+    <col min="87" max="87" width="16.25" customWidth="1"/>
     <col min="88" max="88" width="37" customWidth="1"/>
-    <col min="89" max="89" width="15.59765625" customWidth="1"/>
-    <col min="90" max="90" width="6.3984375" customWidth="1"/>
-    <col min="91" max="91" width="27.3984375" customWidth="1"/>
-    <col min="92" max="92" width="9.09765625" customWidth="1"/>
+    <col min="89" max="89" width="15.625" customWidth="1"/>
+    <col min="90" max="90" width="6.375" customWidth="1"/>
+    <col min="91" max="91" width="27.375" customWidth="1"/>
+    <col min="92" max="92" width="9.125" customWidth="1"/>
     <col min="93" max="93" width="9" customWidth="1"/>
-    <col min="94" max="94" width="8.8984375" customWidth="1"/>
-    <col min="95" max="95" width="8.19921875" customWidth="1"/>
-    <col min="96" max="96" width="8.8984375" customWidth="1"/>
-    <col min="97" max="97" width="10.59765625" customWidth="1"/>
-    <col min="98" max="98" width="8.59765625" customWidth="1"/>
-    <col min="99" max="99" width="10.19921875" customWidth="1"/>
-    <col min="100" max="100" width="8.8984375" customWidth="1"/>
-    <col min="101" max="101" width="8.3984375" customWidth="1"/>
-    <col min="102" max="102" width="8.19921875" customWidth="1"/>
+    <col min="94" max="94" width="8.875" customWidth="1"/>
+    <col min="95" max="95" width="8.25" customWidth="1"/>
+    <col min="96" max="96" width="8.875" customWidth="1"/>
+    <col min="97" max="97" width="10.625" customWidth="1"/>
+    <col min="98" max="98" width="8.625" customWidth="1"/>
+    <col min="99" max="99" width="10.25" customWidth="1"/>
+    <col min="100" max="100" width="8.875" customWidth="1"/>
+    <col min="101" max="101" width="8.375" customWidth="1"/>
+    <col min="102" max="102" width="8.25" customWidth="1"/>
     <col min="103" max="103" width="9" customWidth="1"/>
-    <col min="104" max="104" width="12.09765625" customWidth="1"/>
-    <col min="105" max="106" width="9.09765625" customWidth="1"/>
-    <col min="107" max="107" width="8.8984375" customWidth="1"/>
+    <col min="104" max="104" width="12.125" customWidth="1"/>
+    <col min="105" max="106" width="9.125" customWidth="1"/>
+    <col min="107" max="107" width="8.875" customWidth="1"/>
     <col min="108" max="108" width="9" customWidth="1"/>
-    <col min="109" max="109" width="9.09765625" customWidth="1"/>
-    <col min="110" max="110" width="8.19921875" customWidth="1"/>
-    <col min="111" max="111" width="8.8984375" customWidth="1"/>
-    <col min="112" max="113" width="9.09765625" customWidth="1"/>
-    <col min="114" max="114" width="20.59765625" customWidth="1"/>
-    <col min="115" max="115" width="8.8984375" customWidth="1"/>
+    <col min="109" max="109" width="9.125" customWidth="1"/>
+    <col min="110" max="110" width="8.25" customWidth="1"/>
+    <col min="111" max="111" width="8.875" customWidth="1"/>
+    <col min="112" max="113" width="9.125" customWidth="1"/>
+    <col min="114" max="114" width="20.625" customWidth="1"/>
+    <col min="115" max="115" width="8.875" customWidth="1"/>
     <col min="116" max="116" width="15" customWidth="1"/>
-    <col min="117" max="117" width="20.19921875" customWidth="1"/>
-    <col min="118" max="118" width="17.3984375" customWidth="1"/>
-    <col min="119" max="119" width="18.19921875" customWidth="1"/>
-    <col min="120" max="120" width="8.59765625" customWidth="1"/>
-    <col min="121" max="121" width="8.3984375" customWidth="1"/>
-    <col min="122" max="122" width="9.09765625" customWidth="1"/>
-    <col min="123" max="123" width="11.59765625" customWidth="1"/>
-    <col min="124" max="124" width="8.69921875" customWidth="1"/>
-    <col min="125" max="125" width="8.8984375" customWidth="1"/>
+    <col min="117" max="117" width="20.25" customWidth="1"/>
+    <col min="118" max="118" width="17.375" customWidth="1"/>
+    <col min="119" max="119" width="18.25" customWidth="1"/>
+    <col min="120" max="120" width="8.625" customWidth="1"/>
+    <col min="121" max="121" width="8.375" customWidth="1"/>
+    <col min="122" max="122" width="9.125" customWidth="1"/>
+    <col min="123" max="123" width="11.625" customWidth="1"/>
+    <col min="124" max="124" width="8.75" customWidth="1"/>
+    <col min="125" max="125" width="8.875" customWidth="1"/>
     <col min="126" max="126" width="8" customWidth="1"/>
     <col min="127" max="127" width="13" customWidth="1"/>
-    <col min="128" max="128" width="8.69921875" customWidth="1"/>
-    <col min="129" max="129" width="9.09765625" customWidth="1"/>
-    <col min="130" max="130" width="18.8984375" customWidth="1"/>
+    <col min="128" max="128" width="8.75" customWidth="1"/>
+    <col min="129" max="129" width="9.125" customWidth="1"/>
+    <col min="130" max="130" width="18.875" customWidth="1"/>
     <col min="131" max="131" width="11" customWidth="1"/>
-    <col min="132" max="132" width="7.59765625" customWidth="1"/>
+    <col min="132" max="132" width="7.625" customWidth="1"/>
     <col min="133" max="133" width="9" customWidth="1"/>
-    <col min="134" max="134" width="9.09765625" customWidth="1"/>
+    <col min="134" max="134" width="9.125" customWidth="1"/>
     <col min="135" max="135" width="9" customWidth="1"/>
-    <col min="136" max="136" width="9.09765625" customWidth="1"/>
-    <col min="137" max="137" width="7.09765625" customWidth="1"/>
-    <col min="138" max="138" width="8.59765625" customWidth="1"/>
-    <col min="139" max="139" width="9.09765625" customWidth="1"/>
-    <col min="140" max="141" width="8.8984375" customWidth="1"/>
-    <col min="142" max="142" width="8.59765625" customWidth="1"/>
-    <col min="143" max="143" width="8.69921875" customWidth="1"/>
-    <col min="144" max="144" width="8.19921875" customWidth="1"/>
-    <col min="145" max="145" width="9.19921875" customWidth="1"/>
-    <col min="146" max="146" width="6.19921875" customWidth="1"/>
-    <col min="147" max="147" width="7.8984375" customWidth="1"/>
+    <col min="136" max="136" width="9.125" customWidth="1"/>
+    <col min="137" max="137" width="7.125" customWidth="1"/>
+    <col min="138" max="138" width="8.625" customWidth="1"/>
+    <col min="139" max="139" width="9.125" customWidth="1"/>
+    <col min="140" max="141" width="8.875" customWidth="1"/>
+    <col min="142" max="142" width="8.625" customWidth="1"/>
+    <col min="143" max="143" width="8.75" customWidth="1"/>
+    <col min="144" max="144" width="8.25" customWidth="1"/>
+    <col min="145" max="145" width="9.25" customWidth="1"/>
+    <col min="146" max="146" width="6.25" customWidth="1"/>
+    <col min="147" max="147" width="7.875" customWidth="1"/>
     <col min="148" max="148" width="9" customWidth="1"/>
-    <col min="149" max="149" width="8.19921875" customWidth="1"/>
-    <col min="150" max="150" width="9.09765625" customWidth="1"/>
+    <col min="149" max="149" width="8.25" customWidth="1"/>
+    <col min="150" max="150" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:150" ht="84" customHeight="1">
@@ -2537,7 +2537,7 @@
       <c r="ES2" s="1"/>
       <c r="ET2" s="19"/>
     </row>
-    <row r="3" spans="1:150" ht="13.8">
+    <row r="3" spans="1:150">
       <c r="A3" s="31" t="s">
         <v>148</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="ES3" s="35"/>
       <c r="ET3" s="37"/>
     </row>
-    <row r="4" spans="1:150" ht="13.8">
+    <row r="4" spans="1:150">
       <c r="A4" s="31" t="s">
         <v>149</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="ES4" s="35"/>
       <c r="ET4" s="37"/>
     </row>
-    <row r="5" spans="1:150" ht="13.8">
+    <row r="5" spans="1:150">
       <c r="A5" s="31" t="s">
         <v>150</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="ES5" s="35"/>
       <c r="ET5" s="37"/>
     </row>
-    <row r="6" spans="1:150" ht="13.8">
+    <row r="6" spans="1:150">
       <c r="A6" s="31" t="s">
         <v>151</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="ES6" s="35"/>
       <c r="ET6" s="37"/>
     </row>
-    <row r="7" spans="1:150" ht="13.8">
+    <row r="7" spans="1:150">
       <c r="A7" s="31" t="s">
         <v>152</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="ES7" s="35"/>
       <c r="ET7" s="37"/>
     </row>
-    <row r="8" spans="1:150" ht="13.8">
+    <row r="8" spans="1:150">
       <c r="A8" s="31" t="s">
         <v>153</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="ES9" s="35"/>
       <c r="ET9" s="37"/>
     </row>
-    <row r="10" spans="1:150" ht="13.8">
+    <row r="10" spans="1:150">
       <c r="A10" s="31" t="s">
         <v>155</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="ES10" s="35"/>
       <c r="ET10" s="37"/>
     </row>
-    <row r="11" spans="1:150" ht="13.8">
+    <row r="11" spans="1:150">
       <c r="A11" s="31" t="s">
         <v>157</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="ES11" s="35"/>
       <c r="ET11" s="37"/>
     </row>
-    <row r="12" spans="1:150" ht="13.8">
+    <row r="12" spans="1:150">
       <c r="A12" s="31" t="s">
         <v>158</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="ES12" s="35"/>
       <c r="ET12" s="37"/>
     </row>
-    <row r="13" spans="1:150" ht="13.8">
+    <row r="13" spans="1:150">
       <c r="A13" s="41" t="s">
         <v>159</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="ES13" s="43"/>
       <c r="ET13" s="44"/>
     </row>
-    <row r="14" spans="1:150" ht="13.8">
+    <row r="14" spans="1:150">
       <c r="A14" s="45" t="s">
         <v>160</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="ES14" s="43"/>
       <c r="ET14" s="44"/>
     </row>
-    <row r="15" spans="1:150" ht="13.8">
+    <row r="15" spans="1:150">
       <c r="A15" s="46" t="s">
         <v>161</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="ES15" s="39"/>
       <c r="ET15" s="47"/>
     </row>
-    <row r="16" spans="1:150" ht="13.8">
+    <row r="16" spans="1:150">
       <c r="A16" s="46" t="s">
         <v>162</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="ES16" s="39"/>
       <c r="ET16" s="47"/>
     </row>
-    <row r="17" spans="1:150" ht="13.8">
+    <row r="17" spans="1:150">
       <c r="A17" s="46" t="s">
         <v>163</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="ES17" s="39"/>
       <c r="ET17" s="47"/>
     </row>
-    <row r="18" spans="1:150" ht="13.8">
+    <row r="18" spans="1:150">
       <c r="A18" s="46" t="s">
         <v>164</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="ES18" s="39"/>
       <c r="ET18" s="47"/>
     </row>
-    <row r="19" spans="1:150" ht="13.8">
+    <row r="19" spans="1:150">
       <c r="A19" s="46" t="s">
         <v>165</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="ES19" s="39"/>
       <c r="ET19" s="47"/>
     </row>
-    <row r="20" spans="1:150" ht="13.8">
+    <row r="20" spans="1:150">
       <c r="A20" s="46" t="s">
         <v>166</v>
       </c>
